--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H2">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.06522918415641</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N2">
-        <v>9.06522918415641</v>
+        <v>171.747476</v>
       </c>
       <c r="O2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q2">
-        <v>59.34662976135673</v>
+        <v>410.5962901290893</v>
       </c>
       <c r="R2">
-        <v>59.34662976135673</v>
+        <v>3695.366611161804</v>
       </c>
       <c r="S2">
-        <v>0.06135784087680288</v>
+        <v>0.07139754637503565</v>
       </c>
       <c r="T2">
-        <v>0.06135784087680288</v>
+        <v>0.07139754637503565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H3">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.953439883745289</v>
+        <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>0.953439883745289</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q3">
-        <v>6.241810618449158</v>
+        <v>11.254204484438</v>
       </c>
       <c r="R3">
-        <v>6.241810618449158</v>
+        <v>101.287840359942</v>
       </c>
       <c r="S3">
-        <v>0.00645334072465426</v>
+        <v>0.001956965043057678</v>
       </c>
       <c r="T3">
-        <v>0.00645334072465426</v>
+        <v>0.001956965043057678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.4392298282187</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H4">
-        <v>89.4392298282187</v>
+        <v>21.516279</v>
       </c>
       <c r="I4">
-        <v>0.9264288909852443</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J4">
-        <v>0.9264288909852443</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.06522918415641</v>
+        <v>0.1758903333333333</v>
       </c>
       <c r="N4">
-        <v>9.06522918415641</v>
+        <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470275</v>
       </c>
       <c r="P4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470276</v>
       </c>
       <c r="Q4">
-        <v>810.7871164472406</v>
+        <v>1.261501828467667</v>
       </c>
       <c r="R4">
-        <v>810.7871164472406</v>
+        <v>11.353516456209</v>
       </c>
       <c r="S4">
-        <v>0.8382640610928995</v>
+        <v>0.0002193593499636725</v>
       </c>
       <c r="T4">
-        <v>0.8382640610928995</v>
+        <v>0.0002193593499636725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H5">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.953439883745289</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N5">
-        <v>0.953439883745289</v>
+        <v>171.747476</v>
       </c>
       <c r="O5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q5">
-        <v>85.27492888968501</v>
+        <v>5136.937065850017</v>
       </c>
       <c r="R5">
-        <v>85.27492888968501</v>
+        <v>46232.43359265015</v>
       </c>
       <c r="S5">
-        <v>0.08816482989234463</v>
+        <v>0.8932489435531851</v>
       </c>
       <c r="T5">
-        <v>0.08816482989234463</v>
+        <v>0.8932489435531852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.556074488527655</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H6">
-        <v>0.556074488527655</v>
+        <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.005759927413298506</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J6">
-        <v>0.005759927413298506</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.06522918415641</v>
+        <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>9.06522918415641</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q6">
-        <v>5.040942681965746</v>
+        <v>140.800444506182</v>
       </c>
       <c r="R6">
-        <v>5.040942681965746</v>
+        <v>1267.204000555638</v>
       </c>
       <c r="S6">
-        <v>0.005211776307987387</v>
+        <v>0.02448343179889719</v>
       </c>
       <c r="T6">
-        <v>0.005211776307987387</v>
+        <v>0.02448343179889719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>89.72947699999999</v>
+      </c>
+      <c r="H7">
+        <v>269.188431</v>
+      </c>
+      <c r="I7">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="J7">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.527671</v>
+      </c>
+      <c r="O7">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P7">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q7">
+        <v>15.78254761935567</v>
+      </c>
+      <c r="R7">
+        <v>142.042928574201</v>
+      </c>
+      <c r="S7">
+        <v>0.002744387133198119</v>
+      </c>
+      <c r="T7">
+        <v>0.002744387133198119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.73986</v>
+      </c>
+      <c r="I8">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J8">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57.24915866666667</v>
+      </c>
+      <c r="N8">
+        <v>171.747476</v>
+      </c>
+      <c r="O8">
+        <v>0.9704198736548433</v>
+      </c>
+      <c r="P8">
+        <v>0.9704198736548435</v>
+      </c>
+      <c r="Q8">
+        <v>33.20184039926223</v>
+      </c>
+      <c r="R8">
+        <v>298.8165635933601</v>
+      </c>
+      <c r="S8">
+        <v>0.005773383726622505</v>
+      </c>
+      <c r="T8">
+        <v>0.005773383726622505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.556074488527655</v>
-      </c>
-      <c r="H7">
-        <v>0.556074488527655</v>
-      </c>
-      <c r="I7">
-        <v>0.005759927413298506</v>
-      </c>
-      <c r="J7">
-        <v>0.005759927413298506</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="N7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="O7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="P7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="Q7">
-        <v>0.5301835956955284</v>
-      </c>
-      <c r="R7">
-        <v>0.5301835956955284</v>
-      </c>
-      <c r="S7">
-        <v>0.0005481511053111185</v>
-      </c>
-      <c r="T7">
-        <v>0.0005481511053111185</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.73986</v>
+      </c>
+      <c r="I9">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J9">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.569166</v>
+      </c>
+      <c r="N9">
+        <v>4.707498</v>
+      </c>
+      <c r="O9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="P9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="Q9">
+        <v>0.9100430522533335</v>
+      </c>
+      <c r="R9">
+        <v>8.190387470280001</v>
+      </c>
+      <c r="S9">
+        <v>0.0001582450757314652</v>
+      </c>
+      <c r="T9">
+        <v>0.0001582450757314651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.73986</v>
+      </c>
+      <c r="I10">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J10">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.527671</v>
+      </c>
+      <c r="O10">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P10">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q10">
+        <v>0.1020081851177778</v>
+      </c>
+      <c r="R10">
+        <v>0.9180736660600001</v>
+      </c>
+      <c r="S10">
+        <v>1.77379443084836E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.77379443084836E-05</v>
       </c>
     </row>
   </sheetData>
